--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/10_Artvin_2009.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/10_Artvin_2009.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2009\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2009\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8979205D-7532-4625-8B59-3970E564C0F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{06CD57D1-A5AB-4287-8520-819ABBBF0059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C6287215-BC13-4747-894B-A0DD91A69A84}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E10A7E4B-3AD7-45AA-B619-F7A55EB2809A}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="25" r:id="rId1"/>
@@ -833,10 +833,10 @@
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{CC38D0B7-C94E-40F1-911A-1CB365EA633D}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{76698061-CCB1-4478-A2B0-3BF0A501B0D9}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{29ED3A77-CB05-47B2-9652-27A776792799}"/>
-    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{8236F821-BC16-4D3A-A2AF-659F199979C1}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{496EC51B-A5D9-46A6-BCF8-632606409219}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{E89C2FB4-8A9D-46DD-B7CD-6E388F2D163D}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{7A610EE0-CB04-49A6-A08B-95494F414E41}"/>
+    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{DD175E97-356F-45C6-8C71-7011EB832FC5}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1234,7 +1234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F8D0563-FF81-4FDB-A5C6-60D738D13FB7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7186B772-5011-4E95-83D9-9769228946DA}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2443,18 +2443,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{44D8918F-2B2E-4225-8391-1C43C517E6DF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{3283F666-362E-4534-9B73-F758766A2E7E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{E08910D7-48A5-4911-8B6B-4482ACB4FB55}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{E7F52C78-327A-41C1-8047-04BF19F54DB2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{EC3664CA-BC5F-425D-BA66-D4DB40E0A052}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{737DBE39-041B-426E-98D5-7D307145EA87}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{533E197A-4DCC-434C-998C-1E6059CE3967}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{82D8DF74-4BAC-4619-97FD-5C296679FE56}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{6220058D-EE07-4117-AF13-8FD8539DD1CB}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{3277C4C4-3912-4370-A0A9-74FE28A7EE23}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{1EB42CB0-F460-4146-96C3-EA811374CA2A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{78841BDD-0445-48AD-BFAF-2F1CD3F3544F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{E7B7BF5D-8202-4679-B2A5-586370E309F8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{A126AFC8-7385-44C6-B68E-D55F2B6ACB22}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{92EBD7E3-BDC9-4E63-B56E-8F12232DD4B3}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{DBE250D1-72D9-4968-BA88-8D1987969CE6}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{9202508F-D516-430E-A93F-933C7BF4BE0A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{B2EB68AC-08E6-4966-A6C4-70A90E94A814}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{CFA88EBB-E369-470E-A05F-70AF6379F52C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{32596292-15E2-4A3C-8A32-2D2670000BB1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{D835E446-98B8-4FF7-95E7-9D15EB8F11AE}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{18FFFF96-2F8F-43AC-ACC5-7D6F1CF97049}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{4905B0F1-D5AE-4FC2-89FC-3ED8D7114361}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{832A65ED-A9B4-4A49-B911-DF244D73B04A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2467,7 +2467,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB27205F-A242-4405-BC2D-27B81116A418}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{788736A0-FD24-47E0-B783-3F08F581204A}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3658,18 +3658,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{735145EB-6C4B-4C39-AE0A-93A6F505DC62}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{D55B13FF-B601-4F89-AF1A-C4469BBB3FD5}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{5392C8A8-09A9-40B1-8484-4AB37FC782FF}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{93F14F93-07E9-4226-B40C-6EE9B70B1326}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{7899172F-6B67-4C13-8B5A-1CDED1508803}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{16BBF041-58DA-4ABA-9261-F862AD063AE6}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{2CC1E400-5059-4E50-8979-CA39463C03CF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{78A7C8C3-5F48-4687-846B-1E5DEA57E5AD}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{E1B11C13-C73B-4798-A030-C62C3BD7F99A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{A8602341-E900-45F9-9544-E6D7E3D5A660}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{EDBA8765-AEAF-4193-91FA-5CF5219E720A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{BE246938-FA00-4691-974E-A13BEAA89AE2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{FACCE072-664F-4171-9F38-0FE6669CBC78}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{BAA48608-59A6-414D-9BF5-E52B8A958342}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{DA950464-C1A1-4B93-A8C1-1217127976FA}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{73547CF5-8668-4A0B-A1F7-E8964BFB89F7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{8192CE95-D0A6-4AD7-ADAB-5395D157B4C3}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{9F4AB5FD-CF37-431F-B393-6EB74740704A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{B7543F69-9A09-4C2D-B928-717F7F27776D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{12FC68DD-AFA9-4A2E-8901-38865E690B01}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{304936F0-D298-497F-8270-DE55B24E87BD}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{2A673AFC-50D5-47AE-8BDC-3D142B17F3D4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{10EE2EB7-72D4-4274-A964-379EF4E61E91}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{09CB95E8-74D2-4581-8C00-9CEEDC59C2BC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3682,7 +3682,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EB409F0-3A4D-44EE-9A09-06F5853A7A27}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D048C926-EFB1-43F1-9141-137E715AC1FF}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -4869,18 +4869,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{D3393CA3-CB20-4C9E-862A-E0A77F3B81AD}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{3B891FB6-47B9-4E54-B6D1-48D651284185}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{051B4CCB-8353-4A97-93B9-25F372495EBF}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{F4B2D1F1-FF0A-4D2E-8F53-0AEF08AD3C69}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{8C7E5F4A-6A0C-42ED-B9CE-2F1760694E80}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{AE1286B6-F4EA-4AA0-9C49-FB221F67E35D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{8428E7B1-DE5B-40B1-AE8C-58C8852227EE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{6C28080E-4999-439A-85C6-8CDCD8DDCEC2}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{BD81EE8F-4151-47DC-B9A4-A24D82E4449D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{5E2E7372-5892-463B-B169-1C3A1D901E62}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{41C20D65-C862-4DA5-8801-85BFDEA5317C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{67843642-6814-4E4D-8B1F-BB44E589E37C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{230C3953-C025-4A01-945E-80FD34442FEF}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{D9B4359E-64F2-418A-9C91-A4A6DC743978}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{0F554B5E-BD14-4F94-B09D-1363A0915D3C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{293984E1-93C1-4FBC-BA4D-6C86B242AFDC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{59119278-56AE-42E6-A9AE-E034C4C116B7}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{1E981BDA-51F7-4E4B-92A7-AE7115D22364}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{7678694F-C82C-4723-9278-3325039BFA6D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{0C153D78-69DD-497B-A438-E4869A147110}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{FE24DBEC-B86F-48D9-B66E-05A2B0F3DA76}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{DA70E963-4221-4266-A1C8-BC8CEB38E489}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{6055E9BE-DFBF-4402-A5C5-0E1F06BF5688}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{C3EA82EE-10E6-44EB-BEAD-45482F501552}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4893,7 +4893,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{539D816A-18F8-4EAD-B269-8C8E1214A84E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5E20F87-DE43-4139-8075-AF98698988A8}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6062,18 +6062,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{267580CB-A7BF-4661-AFD6-F85084AD5E69}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{17B87985-BD15-4C9D-8ECC-58A1A38FEF0C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{AD667E97-F9EA-486E-86F7-1F8D98DFBBE5}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{4FBED39E-BD4E-43C8-AB74-8DD5A1255E26}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{DFF3631C-0998-4517-8B17-492476681195}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{7A727A58-6973-4EAE-9AB9-DD3B5FFC3649}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{202E82DF-9367-4BB2-B214-041256EE7640}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{200F468F-A8CE-45D5-8109-7ADB66CA7E80}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{60A4C10E-914D-4C30-A790-8BF9976A3ACC}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{EA2E80FD-40BF-4733-8B0A-75BA43DE1565}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{515F3FFF-23AE-4A76-8E9F-C0AB0A650702}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{579637E0-D060-4DD3-BB73-C2BB68CE73E2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{2F41E4C5-92CD-49A2-A342-81D7D6B35B05}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{C8FD6ACB-C41C-4AC3-A9FC-CDEC5F4AB918}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{A19F1D78-7F5C-44F1-9322-BBA59F95540E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{8DCF1214-B719-440A-B86F-F9AFF97E8767}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{887299A1-F358-4D02-959E-A1659FBB0045}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{543111A0-41B1-4349-856B-60A8AA0159E0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{7D3FDAFB-2B37-44EC-A6A4-4AED9995FF94}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{92A50FF3-567A-482A-A454-DEA2039ED854}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{2FD874AD-EC0E-4128-BEF6-7D86EE96AC78}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{40176B69-53E7-499B-8809-FCDFA6D8C7A8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{F63FA26D-6F6A-4A07-A37D-CA9239B51F85}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{F4F5F14C-2737-42CC-9941-D9D023A4E903}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6086,7 +6086,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37B53E2E-42CB-4CC7-9AB9-33BAF84FB739}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E06B9353-972D-417D-9917-246B1E1DA05C}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7287,18 +7287,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{8C45B607-A137-48FA-9C56-227B16C125D2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{8986EEA9-D7F2-4015-B9AB-A62A28C5FD9A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{004FE62F-587F-4A88-9AF3-1CFB23C19331}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{F6FD038B-D9DD-4AAE-B2FC-D4C01076C6E0}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{12504C71-3377-46DC-8D91-FA169065B4DE}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{0CCAF3F5-BB75-45C0-A481-733D92FB59D8}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{9CA0F3B1-1694-47AA-B30D-B3E86AC98331}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{260D7019-C570-44A2-A697-FC479C092CCF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{A1504DDC-17F1-41AD-BB92-5E6834E90DBA}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{F9B0C8A0-8D51-47AD-98F5-3CD85BCE61E0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{20366E65-F484-4C24-BD93-1E9CF5BD8482}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{C346D88F-96A1-4C52-B7B1-23C6124C6A69}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{EAD05F08-B986-42B4-BCE6-5B01414507A9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{78C5E2BA-BD8B-4EBC-A6D1-B5D580384028}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{202DA007-123C-4D87-9460-D6583F1BFD6D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{7B9BB274-D445-4B65-AD20-D27DD86A0407}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{C1382860-471B-4394-A41B-AE7743B72469}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{167B4474-012B-4176-B6C6-00796552F7E6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{267DBD04-214C-4FE1-9E5A-79B5A104C568}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{F62416B5-58A4-4EB6-A82F-CE27CF8ABA35}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{BC48BDD3-ECB2-4DCF-8CF3-46DBD74A4957}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{0C115E3C-D40C-406A-84C6-7BB8168D54BF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{F98CEB40-1563-4CF0-AD4F-C2F3890DAEAC}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{179A3A03-D639-4133-9CC1-DE51115A0BE2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7311,7 +7311,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E17CD6-2F69-4333-B572-EF11E6B06E96}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58EFE943-BECB-49FC-A2FA-035924A67B45}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -8506,18 +8506,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{AA88A5E5-CBCC-471B-B741-900EE1D34138}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{594C1093-D2EE-4EDB-BE0D-2591119FAD68}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{99D3D099-F57C-4C6D-9A45-476DA8A4742D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{72C851C6-9CB2-4B79-8602-1363363B5D90}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{D0757535-1B96-48BD-B45D-4780BFA4139D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{0F43167F-1E1A-4F6F-8348-F9DA07232B4F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{0DF80AF6-24B4-4326-BB56-59DD6931DF41}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{71E7AB81-41FA-464C-A9CF-E8ED5726D32C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{BFD8A550-C240-42E1-94B8-213CF540F6CB}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{799C7DBA-3A3B-4588-BDE4-D2BEF2519424}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{66842BCA-AF2F-4768-BEF3-0794AB492789}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{0B68FE49-202C-4462-82C3-DD3CB9C3E838}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{F543364A-5153-40D2-BCA7-65FD373ED194}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{73CB8BDB-FAD3-4BB7-B025-7D8DD2D63B80}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{21EAE51D-08C6-47CE-AC13-C834702EE0E0}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{14833CD1-124E-498C-A7A8-138AF5D102C6}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{D78264C8-C4CF-4B32-B246-4C79DF3F8B46}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{57F39A04-916D-456C-A7E1-F34723AC3119}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{467C9ED2-000C-4745-A571-2D63B304D160}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{B232957E-0DFE-4D20-973A-7E1F792CDF64}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{B6013DC8-076D-4032-88A3-87383A1189A1}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{1DBC05B4-CA0C-45F2-BAC5-4B1C6BAF160B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{F4D06D80-92D9-4B2A-9457-4FFDA524A8EC}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{22FAF689-EAE4-4840-9E0F-2BE253B45DD0}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8530,7 +8530,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F3A845-ABFB-4AF0-9EC7-7575230A630E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FACF3FA7-0007-49A0-9F22-57425236B12C}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -9725,18 +9725,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{11C3F25C-028E-4BC4-B650-70088826612C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{EF9A39BE-9567-48DD-B3F7-AE274FFD65D7}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{C98E5282-CD95-4B31-B98A-775999DBC1B5}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{ADC2E211-AB91-4D57-B03E-D7FA23F43314}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{E5CD3DA0-A522-4E42-91A1-DDDF272F27B1}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{3EF832A7-E44D-49DB-B9AF-0AC188ABA504}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{3F9D2054-9CE7-4F63-9E3E-1932A0DE5D46}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{D2236027-713B-4617-877E-9A11DD1BB816}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{02EA8F2C-1F0E-4B9D-9184-37E663A37455}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{D78BD8F5-5ED2-4F21-8F81-BA0EFAE81C39}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{972EFEEC-B30D-4F4C-84CF-408DF58F6715}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{551DF530-5E57-43CD-8433-8FC8E0653615}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{ACAC72A9-2F7F-40A8-9D98-6213CA27B64F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{30C69125-5D14-461E-A6F8-9B3BDCA90A22}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{A7B9E2B4-8FD2-4EC7-B7E9-D9FF84427E6A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{8EEDEED9-8E6B-48C9-8A9E-1BD36E5E40B2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{B7FC9277-296C-4063-8C68-1F3D46D1B13D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{AFE8F6F8-C842-416E-83EE-9BE0EC07DC76}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{E48E081E-3F16-49E6-84BF-23352AAD84C7}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{9FC5D5D0-15D7-478B-8274-99A356FA994B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{8C77F06B-B566-4174-B174-9C6F35491EE3}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{768D6F5E-4029-4BE0-9F96-5E587A8A6407}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{FCF057FC-163B-49B0-B155-B6133A04A265}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{F2FB4599-957C-4842-9441-45BF250144BE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9749,7 +9749,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F5E4F37-EDF8-42BB-BF72-5CD81A1EE96D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32CE93C3-6896-4576-A59C-91784C3B92DE}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -10944,18 +10944,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{4FA7B389-E017-43FD-B148-3B4D69F7DCA1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{37B0182E-5992-46EA-934C-ADE4A0CB5185}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{157BB4B0-DD42-46C9-995C-B3BA6B2A6F0A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{3C72A837-BFAF-484C-913B-B2AC3B9481FF}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{C1982EDF-2141-4FBB-94D7-5057584894C7}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{5C11FC90-CF87-4821-B782-18644534AFE3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{0EC10D09-C23E-404A-A3DA-9499778841A8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{A7A7911A-FCFB-4D17-BC4E-85C9E2AF0A87}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{1A08A58B-55C7-4057-AA6A-4050CB131C0A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{4AD80B07-2074-4A34-BCD1-812AE8D52E49}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{73E812C6-3F4E-4331-AEAE-CB50DA30946A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{B4530829-2CB9-4080-9D5D-C8816D4DA0D2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{ED25A158-430C-4FC1-B6DC-BEE304BD1CF6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{AB69FD2F-5308-4099-9353-213F646DEE28}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{70966B93-0E4F-40D5-B797-55E7ECBF2B22}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{26C41F93-66D9-49FF-912A-D724F2C43615}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{4B91AEA1-5627-4FFC-9267-D15058CF204B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{20E9377D-4689-4507-A044-2559EC98E612}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{FB3EF1B6-D823-45E3-8921-D9FF08A4F921}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{B9F9A963-BB2D-41ED-9E30-519E7218D037}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{A6130D1E-8E73-42C1-904B-ACBF83336CCA}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{6CA37724-A772-4115-B6A9-9BBFDC2CD1D5}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{FB19C45E-4F68-48F9-92EC-1F51106F1154}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{AD31178E-7CBA-4FCA-B699-22FC696B02D8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10968,7 +10968,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CF2DFB3-BA48-4C74-8E3C-23ADFCFD76BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A24AA5-1CDB-4EE9-830A-D14D4E18A174}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12159,18 +12159,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{2D29015B-92D6-4A81-AFA3-D2E9ECF21017}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{E529562E-7092-4D5C-A147-1496C3D332C4}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{8D78AE02-3461-4961-BDC2-4A51EB2736D0}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{DB1256D9-0820-4C8C-84EA-4CB507531F2F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{71FF5572-F887-4F28-A8CF-82DD85F67AB5}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{8C5F2C86-C11F-49A1-9B2D-8D63A3CD39D9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{7A853D98-074B-4546-8BB1-E376C07FCCA2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{3021EC8B-713F-443E-A7F2-FABFC60D9D39}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{6976DEAF-17C8-455F-B73E-68930A6C37C9}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{EC9A8D2E-B6D4-47A6-A6AB-FD0FD10952D3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{93C4767E-1DF6-47BE-ADD2-7F212D3DFBFB}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{EC38E539-D604-487E-9C27-C0C0AF895851}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{2945CB1B-0C62-47E0-9FF0-EE3694275EF0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{B022BDC2-35FF-42CF-813C-23089BC578C2}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{104D4C46-8820-4354-B90A-049172A29B71}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{D132D017-4C5B-494E-BE8E-DD8907A84A82}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{DD1BE140-E141-4B48-AA59-257EBFABF7B0}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{00C36571-F6D3-42C4-9220-8695FC1640E6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{006A2E0F-B1F4-4549-A898-4090830FE9D3}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{D9BC5AC5-22CE-484A-94C2-70A7EB46B593}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{40E69C57-5BFB-4FB4-A555-8B798EDE9DE7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{76F4DDBE-AA29-4D2C-B131-0146582E87DC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{58238290-4673-4E29-A3F3-B8DA90D64980}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{3413B2F7-641B-4E07-AAAA-2C6ED00E79B7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12183,7 +12183,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29ABE9C2-34BB-450E-9B1E-CD2E14E9ABCF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EDEC80C-258C-49D1-A7FE-0ED56E65C499}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13374,18 +13374,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{A868A7B8-C1B6-4642-AA44-DB08EC0BC899}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{64D5B5E2-A7EE-4BEB-BBE9-9BCFB7781EC6}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{D595CCB8-73D2-466C-ACD5-EC20F614432C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{E0A81339-8804-4542-A4F1-CE9091E3D22F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{1190892F-BD75-482B-88EC-A73CB91A5CA0}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{576F650A-30C9-4BB2-9FAC-1EE57E61089F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{12DF9620-6FD9-4E61-A2C2-D68B8FD65C18}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{5CC302EF-1A03-40BB-AD52-9424DE09A886}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{D0E3B5DD-5A8A-4549-AF71-6F2EB358037E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{44FDF9BF-0B7F-4179-9790-7B77E3B996FA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{3B426794-0EB9-4E23-ABFB-61AA5221FDF2}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{D61213A9-5226-4817-89F6-9403A33E06D9}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{55E27BD8-6CBD-47BA-B768-0E1954E0DD67}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{A8F1E207-133F-4091-9179-809BA5480EBA}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{A329E970-1EC6-4D34-92C5-37E34CE01AC8}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{D942C0E1-DD9E-4950-9BD2-F8AD1A6F7C98}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{06536279-CB56-4946-A021-CD048F978B3E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{CCBACF9C-3D8E-4145-A225-0CC64EF16C83}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{6D751ED4-36D5-4DD1-B88F-1B261FA9AB50}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{C6C400AF-51EF-424A-B078-464A33406D09}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{B49D0E3A-44FD-4415-AB0A-4BD41E51841A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{09B125B7-F941-4453-898F-3FFD423EEC7B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{B3D78750-38FC-432D-AEE1-3E394835CE45}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{A9A6B624-8B75-45CE-AA53-3B223176AFD3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13398,7 +13398,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA9DD455-7D37-4C2C-B6F5-F091B4B160BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDF7E826-C2E0-4920-848F-21F118592454}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -14589,18 +14589,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{1FBE0354-861A-4CCD-B229-54022E2A1F2D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{E456A1F4-4E68-4F79-A221-9B46E6FBD1DB}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{593C90BB-B073-4FC0-AE7C-D1A59F787E74}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{0FD0DC13-943C-4BC6-A170-10E3237F3484}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{0C217333-6085-4A52-8143-520B83F640BA}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{2B16C6F0-5E29-4FB3-BE37-5A486409D859}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{EDD10269-FBDE-49A7-936A-83C4450A3203}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{20250736-7E12-4EC7-B7B3-A6AC0BAF8B51}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{A08136A2-5ADD-44C2-B897-E7F525452568}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{960D8C5D-D3FE-451C-AC18-8C2B897A8471}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{98691F9F-5275-4CF1-AE09-F6EE7A6EC43E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{CAE6829A-4B0F-4A16-AD0C-964ACCABD02A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{A59196AB-5B55-403A-8F5C-97AB23BF5F16}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{9703649E-B702-4068-98CB-2E07E2E735D3}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{032620FB-7ED7-4D3D-9FE4-6025705F081B}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{1E1279B7-2DF3-4A6C-BEC8-F5801A7C5913}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{4D0D2C1A-2D8F-4AFE-A6FF-5A24F357AF69}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{93FD021D-4B09-4475-81F5-AABF4488E4DA}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{98139848-6E3C-44F3-A0E4-DCAF661F284E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{16B8AD9E-7B17-408E-B343-EBF065DD4E05}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{FCD91383-4027-4AE8-AF4B-363BA5858C7F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{55E4ED7C-E1B0-4533-9F0F-ECF10969353E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{6F673085-594A-4095-9F0F-B34AC6893823}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{FB9184A4-FE7D-4262-853C-B927233AC43A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14613,7 +14613,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA79F90B-C220-463E-B720-30E89C0CF9EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1FFBD3B-7EE3-402C-AD1F-A217A6582B0B}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15804,18 +15804,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{F3F0096F-B84E-489B-BDD7-CD252E5730D0}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{964750B5-344E-4B43-9344-6D106B03FFE5}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{36501809-5E13-4FF8-9474-72679102D2C4}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{3B3061E4-4879-49FB-BBE1-C0A8EED73825}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{C7AB78B0-FD82-4473-9F93-102C92BC4949}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{8FC1978C-5A70-444E-8C4D-C9E416AD71E6}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{8C1F9456-58E1-43D6-8812-4B10CF389CFE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{A02010AC-E969-4A41-8CB4-54123F43376B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{37B12F97-DAB7-4927-B18C-DB673BA89E71}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{7C5BEA1E-9644-4DDF-B2C6-6B72B2DE139F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{FBE0D95A-6A60-4451-B8CA-E883D92E4088}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{E259EA39-5EBF-425C-9E60-F89382E95FDB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{F8B55EFD-C6F9-4D67-AF9C-77A2CC7E39C7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{6DDC4E49-3C30-4ECE-B751-D3CD0F634558}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{CD5672EA-7B7B-452C-99A6-CBE7A1BC2248}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{F215A9A6-869D-4F86-A2DC-2ED5FA83A844}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{0BAE6094-385D-48AF-AB2A-E46F2505DB5F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{F226149E-24B7-469D-88F1-17439F6BFA7A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{9D52D840-0010-4941-BA5B-9B38395D5B8B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{2B0B1BBB-35BC-4DCB-B9BC-DCCA4C348C23}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{1B7CDDCF-F54F-42CA-A3A4-50FD459AE183}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{888F8639-B056-4D2E-8BEA-110720049795}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{90B2B16F-AB4A-46E9-9957-FF65D679CA2E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{502E0F1A-46F9-44A3-BD07-616E39B68F42}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
